--- a/iris.xlsx
+++ b/iris.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Zhu\word\csnotes\2410 Python\Data Sets\Iris dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2586D3B-8161-4184-82C8-9D5FFBE5A926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10275" windowHeight="8220"/>
+    <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
@@ -2974,7 +2975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -3862,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -4751,7 +4752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
